--- a/Code/Results/Cases/Case_2_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016245434093443</v>
+        <v>1.038481317993446</v>
       </c>
       <c r="D2">
-        <v>1.03231257231503</v>
+        <v>1.042601762076446</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.021564762663405</v>
+        <v>1.048153513249709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053207502590407</v>
+        <v>1.042429009588483</v>
       </c>
       <c r="J2">
-        <v>1.03795087128932</v>
+        <v>1.043578521435032</v>
       </c>
       <c r="K2">
-        <v>1.043339373643647</v>
+        <v>1.045377987432357</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.03273162376554</v>
+        <v>1.050914152533261</v>
       </c>
       <c r="N2">
-        <v>1.016005227240048</v>
+        <v>1.018388171980965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021507407964568</v>
+        <v>1.039528662580185</v>
       </c>
       <c r="D3">
-        <v>1.036415820739716</v>
+        <v>1.043426543600749</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.027613476855801</v>
+        <v>1.049441225103684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055380142949736</v>
+        <v>1.042782960585228</v>
       </c>
       <c r="J3">
-        <v>1.041428449449903</v>
+        <v>1.044270186223669</v>
       </c>
       <c r="K3">
-        <v>1.046603028522903</v>
+        <v>1.046013597376794</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.037904820715077</v>
+        <v>1.052012621155029</v>
       </c>
       <c r="N3">
-        <v>1.017207177505486</v>
+        <v>1.018623697691576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024828114060057</v>
+        <v>1.040205904737306</v>
       </c>
       <c r="D4">
-        <v>1.039006901704906</v>
+        <v>1.043959768398149</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.03143428703656</v>
+        <v>1.050274398415984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056739488730146</v>
+        <v>1.04301042210973</v>
       </c>
       <c r="J4">
-        <v>1.043617352829306</v>
+        <v>1.044716706344207</v>
       </c>
       <c r="K4">
-        <v>1.048656282393352</v>
+        <v>1.046423768925614</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.041167571814036</v>
+        <v>1.052722792628003</v>
       </c>
       <c r="N4">
-        <v>1.017963221788991</v>
+        <v>1.018775610470451</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026204841241059</v>
+        <v>1.040490508237326</v>
       </c>
       <c r="D5">
-        <v>1.040081470606492</v>
+        <v>1.044183825209557</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.033019260651237</v>
+        <v>1.050624651499011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057300202003361</v>
+        <v>1.043105671754552</v>
       </c>
       <c r="J5">
-        <v>1.044523446589135</v>
+        <v>1.044904176559919</v>
       </c>
       <c r="K5">
-        <v>1.049505974070798</v>
+        <v>1.04659593953739</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.042519827032707</v>
+        <v>1.053021204025242</v>
       </c>
       <c r="N5">
-        <v>1.018276056274942</v>
+        <v>1.018839357864108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026434891788103</v>
+        <v>1.040538288047905</v>
       </c>
       <c r="D6">
-        <v>1.040261048906076</v>
+        <v>1.044221438836655</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.033284163732421</v>
+        <v>1.050683459828571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057393727999101</v>
+        <v>1.043121642597193</v>
       </c>
       <c r="J6">
-        <v>1.044674771256428</v>
+        <v>1.044935639174077</v>
       </c>
       <c r="K6">
-        <v>1.049647864143469</v>
+        <v>1.04662483218189</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.042745762704543</v>
+        <v>1.053071300174488</v>
       </c>
       <c r="N6">
-        <v>1.018328294223048</v>
+        <v>1.018850054489723</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024846584701724</v>
+        <v>1.040209708050676</v>
       </c>
       <c r="D7">
-        <v>1.039021317226798</v>
+        <v>1.043962762691737</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.031455547934946</v>
+        <v>1.050279078563372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056747022790452</v>
+        <v>1.043011696313967</v>
       </c>
       <c r="J7">
-        <v>1.04362951487042</v>
+        <v>1.044719212299686</v>
       </c>
       <c r="K7">
-        <v>1.048667688380988</v>
+        <v>1.046426070520563</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.041185715865445</v>
+        <v>1.0527267805822</v>
       </c>
       <c r="N7">
-        <v>1.017967421330679</v>
+        <v>1.018776462724803</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018041691969514</v>
+        <v>1.038835368800958</v>
       </c>
       <c r="D8">
-        <v>1.033712907632039</v>
+        <v>1.042880597044506</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.02362885405846</v>
+        <v>1.048588715588769</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053951618368742</v>
+        <v>1.042548953926343</v>
       </c>
       <c r="J8">
-        <v>1.039139180544938</v>
+        <v>1.043812487043106</v>
       </c>
       <c r="K8">
-        <v>1.044454788071469</v>
+        <v>1.045593024967338</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.034497994052006</v>
+        <v>1.051285512675739</v>
       </c>
       <c r="N8">
-        <v>1.016416041680374</v>
+        <v>1.018467870132414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005365171533905</v>
+        <v>1.036410041299786</v>
       </c>
       <c r="D9">
-        <v>1.023839711535511</v>
+        <v>1.040970119960046</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.009075750829876</v>
+        <v>1.045609514634197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048651417557458</v>
+        <v>1.04172151621527</v>
       </c>
       <c r="J9">
-        <v>1.030729883990872</v>
+        <v>1.042206784065362</v>
       </c>
       <c r="K9">
-        <v>1.036557494587318</v>
+        <v>1.044116569354942</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.022023276670935</v>
+        <v>1.048741060329378</v>
       </c>
       <c r="N9">
-        <v>1.013507027028188</v>
+        <v>1.017920346917302</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9963909145698185</v>
+        <v>1.034790693592669</v>
       </c>
       <c r="D10">
-        <v>1.016864548827448</v>
+        <v>1.03969405698252</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.998787988094789</v>
+        <v>1.043622875209442</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044838518831593</v>
+        <v>1.041161783697248</v>
       </c>
       <c r="J10">
-        <v>1.024748460213412</v>
+        <v>1.041130943164717</v>
       </c>
       <c r="K10">
-        <v>1.030935841522934</v>
+        <v>1.043126508839569</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.013179160326818</v>
+        <v>1.047041457424071</v>
       </c>
       <c r="N10">
-        <v>1.011435977505475</v>
+        <v>1.017552806040918</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923652556928811</v>
+        <v>1.034088898660644</v>
       </c>
       <c r="D11">
-        <v>1.013740028304657</v>
+        <v>1.039140931085017</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9941758678696622</v>
+        <v>1.042762489837454</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043114277780795</v>
+        <v>1.040917485068499</v>
       </c>
       <c r="J11">
-        <v>1.022059134638742</v>
+        <v>1.04066380923252</v>
       </c>
       <c r="K11">
-        <v>1.028407397672139</v>
+        <v>1.042696429608604</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.00920846099027</v>
+        <v>1.046304703437111</v>
       </c>
       <c r="N11">
-        <v>1.010504489960854</v>
+        <v>1.017393055632052</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9908474751326413</v>
+        <v>1.033828128191053</v>
       </c>
       <c r="D12">
-        <v>1.012562746592759</v>
+        <v>1.038935387526165</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9924373118248581</v>
+        <v>1.042442878182315</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042462159508322</v>
+        <v>1.040826451071263</v>
       </c>
       <c r="J12">
-        <v>1.021044301554307</v>
+        <v>1.040490100575033</v>
       </c>
       <c r="K12">
-        <v>1.027453158051574</v>
+        <v>1.042536471556545</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.007710849570055</v>
+        <v>1.04603091561816</v>
       </c>
       <c r="N12">
-        <v>1.010152951977465</v>
+        <v>1.017333626431016</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9911740863424739</v>
+        <v>1.033884068554752</v>
       </c>
       <c r="D13">
-        <v>1.01281605072761</v>
+        <v>1.038979481306365</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9928114178522727</v>
+        <v>1.042511437195164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042602579873015</v>
+        <v>1.040845991331988</v>
       </c>
       <c r="J13">
-        <v>1.021262722762986</v>
+        <v>1.040527370478644</v>
       </c>
       <c r="K13">
-        <v>1.027658542799434</v>
+        <v>1.042570792501322</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.008033146175979</v>
+        <v>1.046089649707536</v>
       </c>
       <c r="N13">
-        <v>1.010228614450206</v>
+        <v>1.017346378308272</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9922402629254727</v>
+        <v>1.034067345189299</v>
       </c>
       <c r="D14">
-        <v>1.01364306075192</v>
+        <v>1.039123942587868</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9940326873726734</v>
+        <v>1.042736071188109</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043060615322336</v>
+        <v>1.040909966101331</v>
       </c>
       <c r="J14">
-        <v>1.02197557849181</v>
+        <v>1.040649454389624</v>
       </c>
       <c r="K14">
-        <v>1.028328832747561</v>
+        <v>1.042683211662492</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.009085140644222</v>
+        <v>1.046282074604715</v>
       </c>
       <c r="N14">
-        <v>1.01047554677916</v>
+        <v>1.017388145049073</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9928941452772011</v>
+        <v>1.034180255661351</v>
       </c>
       <c r="D15">
-        <v>1.014150363958389</v>
+        <v>1.039212938278855</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9947817295159588</v>
+        <v>1.042874472053623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043341260557806</v>
+        <v>1.04094934454358</v>
       </c>
       <c r="J15">
-        <v>1.022412655112848</v>
+        <v>1.040724648542198</v>
       </c>
       <c r="K15">
-        <v>1.028739795982241</v>
+        <v>1.042752449305115</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.009730251242837</v>
+        <v>1.046400617360675</v>
       </c>
       <c r="N15">
-        <v>1.010626945252964</v>
+        <v>1.017413866879746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9966550171112948</v>
+        <v>1.034837256506296</v>
       </c>
       <c r="D16">
-        <v>1.017069630661209</v>
+        <v>1.039730753817491</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9990906161029605</v>
+        <v>1.043679972617449</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044951353506892</v>
+        <v>1.041177956268267</v>
       </c>
       <c r="J16">
-        <v>1.024924767990915</v>
+        <v>1.04116191810204</v>
       </c>
       <c r="K16">
-        <v>1.031101585254974</v>
+        <v>1.043155022723159</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.013439583102948</v>
+        <v>1.047090336008503</v>
       </c>
       <c r="N16">
-        <v>1.011497038725145</v>
+        <v>1.017563395430305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9989756989731187</v>
+        <v>1.035249212339091</v>
       </c>
       <c r="D17">
-        <v>1.018872202073497</v>
+        <v>1.040055409598746</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.001750126286004</v>
+        <v>1.044185197888482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045941271835149</v>
+        <v>1.041320841068822</v>
       </c>
       <c r="J17">
-        <v>1.026473296545843</v>
+        <v>1.041435860386266</v>
       </c>
       <c r="K17">
-        <v>1.032557231350363</v>
+        <v>1.043407177392224</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.015727538877235</v>
+        <v>1.047522758634005</v>
       </c>
       <c r="N17">
-        <v>1.012033310949025</v>
+        <v>1.017657029199007</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000315936719691</v>
+        <v>1.035489440766645</v>
       </c>
       <c r="D18">
-        <v>1.019913629753737</v>
+        <v>1.040244719682769</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.003286308898134</v>
+        <v>1.044479872228381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046511656195689</v>
+        <v>1.041403997101776</v>
       </c>
       <c r="J18">
-        <v>1.027367013657061</v>
+        <v>1.041595522096675</v>
       </c>
       <c r="K18">
-        <v>1.033397258648459</v>
+        <v>1.043554122178324</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.01704855646007</v>
+        <v>1.047774904974212</v>
       </c>
       <c r="N18">
-        <v>1.012342784170325</v>
+        <v>1.017711586047385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000770696835344</v>
+        <v>1.035571342583543</v>
       </c>
       <c r="D19">
-        <v>1.020267066546911</v>
+        <v>1.040309260021985</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.003807602792056</v>
+        <v>1.044580346094915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046704971050266</v>
+        <v>1.041432319584429</v>
       </c>
       <c r="J19">
-        <v>1.027670162595242</v>
+        <v>1.041649941575025</v>
       </c>
       <c r="K19">
-        <v>1.033682181361778</v>
+        <v>1.043604204053941</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.017496741679029</v>
+        <v>1.047860867118087</v>
       </c>
       <c r="N19">
-        <v>1.012447751964177</v>
+        <v>1.017730178667263</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9987281056174429</v>
+        <v>1.035205019431802</v>
       </c>
       <c r="D20">
-        <v>1.018679842864756</v>
+        <v>1.040020582916262</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.00146635636293</v>
+        <v>1.044130993569418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045835793446266</v>
+        <v>1.041305530150826</v>
       </c>
       <c r="J20">
-        <v>1.026308144857133</v>
+        <v>1.041406481823178</v>
       </c>
       <c r="K20">
-        <v>1.03240199422664</v>
+        <v>1.043380137319945</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.015483470574225</v>
+        <v>1.047476371909778</v>
       </c>
       <c r="N20">
-        <v>1.011976120234256</v>
+        <v>1.01764698919752</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9919269333808672</v>
+        <v>1.03401337735582</v>
       </c>
       <c r="D21">
-        <v>1.013399996601243</v>
+        <v>1.039081404773613</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9936737702996573</v>
+        <v>1.042669922820522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042926062707807</v>
+        <v>1.040891135152833</v>
       </c>
       <c r="J21">
-        <v>1.021766107393443</v>
+        <v>1.040613509091625</v>
       </c>
       <c r="K21">
-        <v>1.028131872578595</v>
+        <v>1.042650112754302</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.008775994470075</v>
+        <v>1.046225413725255</v>
       </c>
       <c r="N21">
-        <v>1.010402987133411</v>
+        <v>1.017375848292874</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9875199159894744</v>
+        <v>1.033263608306606</v>
       </c>
       <c r="D22">
-        <v>1.009983165948411</v>
+        <v>1.038490396963267</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9886262548250591</v>
+        <v>1.041751136675072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041028776170897</v>
+        <v>1.040628906928739</v>
       </c>
       <c r="J22">
-        <v>1.01881781636946</v>
+        <v>1.040113810985763</v>
       </c>
       <c r="K22">
-        <v>1.025359415087606</v>
+        <v>1.042189916603506</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.004426445936168</v>
+        <v>1.04543816477316</v>
       </c>
       <c r="N22">
-        <v>1.009381646130394</v>
+        <v>1.017204845870823</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9898690929312163</v>
+        <v>1.033661126389523</v>
       </c>
       <c r="D23">
-        <v>1.011804076116266</v>
+        <v>1.038803749825246</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9913166991369651</v>
+        <v>1.042238217956436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042041228250382</v>
+        <v>1.040768078651488</v>
       </c>
       <c r="J23">
-        <v>1.020389882262817</v>
+        <v>1.040378817297936</v>
       </c>
       <c r="K23">
-        <v>1.026837781944746</v>
+        <v>1.042433989332185</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.006745307893056</v>
+        <v>1.0458555694956</v>
       </c>
       <c r="N23">
-        <v>1.00992625277923</v>
+        <v>1.017295547365035</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9988400236263679</v>
+        <v>1.03522498848449</v>
       </c>
       <c r="D24">
-        <v>1.018766792481358</v>
+        <v>1.040036319768212</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.001594626201208</v>
+        <v>1.044155486213725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045883476229871</v>
+        <v>1.041312449070919</v>
       </c>
       <c r="J24">
-        <v>1.026382799123637</v>
+        <v>1.041419757114689</v>
       </c>
       <c r="K24">
-        <v>1.032472167028258</v>
+        <v>1.043392355974657</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.015593796167493</v>
+        <v>1.047497332315609</v>
       </c>
       <c r="N24">
-        <v>1.012001972508509</v>
+        <v>1.017651526021598</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008729684478108</v>
+        <v>1.037037475876338</v>
       </c>
       <c r="D25">
-        <v>1.026457994153831</v>
+        <v>1.041464447933822</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.012935515743927</v>
+        <v>1.046379789377722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050068720883527</v>
+        <v>1.041936856095459</v>
       </c>
       <c r="J25">
-        <v>1.032966789622548</v>
+        <v>1.042622841032748</v>
       </c>
       <c r="K25">
-        <v>1.038659012665826</v>
+        <v>1.044499281232582</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.025336289205418</v>
+        <v>1.049399436425212</v>
       </c>
       <c r="N25">
-        <v>1.014281204380526</v>
+        <v>1.018062339291407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038481317993446</v>
+        <v>1.016245434093443</v>
       </c>
       <c r="D2">
-        <v>1.042601762076446</v>
+        <v>1.032312572315029</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.048153513249709</v>
+        <v>1.021564762663404</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042429009588483</v>
+        <v>1.053207502590407</v>
       </c>
       <c r="J2">
-        <v>1.043578521435032</v>
+        <v>1.037950871289319</v>
       </c>
       <c r="K2">
-        <v>1.045377987432357</v>
+        <v>1.043339373643647</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.050914152533261</v>
+        <v>1.032731623765539</v>
       </c>
       <c r="N2">
-        <v>1.018388171980965</v>
+        <v>1.016005227240048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039528662580185</v>
+        <v>1.021507407964567</v>
       </c>
       <c r="D3">
-        <v>1.043426543600749</v>
+        <v>1.036415820739715</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.049441225103684</v>
+        <v>1.0276134768558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042782960585228</v>
+        <v>1.055380142949735</v>
       </c>
       <c r="J3">
-        <v>1.044270186223669</v>
+        <v>1.041428449449902</v>
       </c>
       <c r="K3">
-        <v>1.046013597376794</v>
+        <v>1.046603028522901</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.052012621155029</v>
+        <v>1.037904820715076</v>
       </c>
       <c r="N3">
-        <v>1.018623697691576</v>
+        <v>1.017207177505485</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040205904737306</v>
+        <v>1.024828114060056</v>
       </c>
       <c r="D4">
-        <v>1.043959768398149</v>
+        <v>1.039006901704906</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.050274398415984</v>
+        <v>1.031434287036559</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04301042210973</v>
+        <v>1.056739488730145</v>
       </c>
       <c r="J4">
-        <v>1.044716706344207</v>
+        <v>1.043617352829305</v>
       </c>
       <c r="K4">
-        <v>1.046423768925614</v>
+        <v>1.048656282393352</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.052722792628003</v>
+        <v>1.041167571814036</v>
       </c>
       <c r="N4">
-        <v>1.018775610470451</v>
+        <v>1.017963221788991</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040490508237326</v>
+        <v>1.026204841241058</v>
       </c>
       <c r="D5">
-        <v>1.044183825209557</v>
+        <v>1.040081470606492</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.050624651499011</v>
+        <v>1.033019260651237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043105671754552</v>
+        <v>1.057300202003361</v>
       </c>
       <c r="J5">
-        <v>1.044904176559919</v>
+        <v>1.044523446589134</v>
       </c>
       <c r="K5">
-        <v>1.04659593953739</v>
+        <v>1.049505974070798</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.053021204025242</v>
+        <v>1.042519827032707</v>
       </c>
       <c r="N5">
-        <v>1.018839357864108</v>
+        <v>1.018276056274942</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040538288047905</v>
+        <v>1.026434891788103</v>
       </c>
       <c r="D6">
-        <v>1.044221438836655</v>
+        <v>1.040261048906077</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.050683459828571</v>
+        <v>1.033284163732421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043121642597193</v>
+        <v>1.057393727999101</v>
       </c>
       <c r="J6">
-        <v>1.044935639174077</v>
+        <v>1.044674771256428</v>
       </c>
       <c r="K6">
-        <v>1.04662483218189</v>
+        <v>1.04964786414347</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.053071300174488</v>
+        <v>1.042745762704543</v>
       </c>
       <c r="N6">
-        <v>1.018850054489723</v>
+        <v>1.018328294223048</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040209708050676</v>
+        <v>1.024846584701724</v>
       </c>
       <c r="D7">
-        <v>1.043962762691737</v>
+        <v>1.039021317226798</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.050279078563372</v>
+        <v>1.031455547934946</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043011696313967</v>
+        <v>1.056747022790452</v>
       </c>
       <c r="J7">
-        <v>1.044719212299686</v>
+        <v>1.043629514870421</v>
       </c>
       <c r="K7">
-        <v>1.046426070520563</v>
+        <v>1.048667688380988</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.0527267805822</v>
+        <v>1.041185715865445</v>
       </c>
       <c r="N7">
-        <v>1.018776462724803</v>
+        <v>1.017967421330679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038835368800958</v>
+        <v>1.018041691969513</v>
       </c>
       <c r="D8">
-        <v>1.042880597044506</v>
+        <v>1.033712907632038</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.048588715588769</v>
+        <v>1.023628854058459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042548953926343</v>
+        <v>1.053951618368741</v>
       </c>
       <c r="J8">
-        <v>1.043812487043106</v>
+        <v>1.039139180544937</v>
       </c>
       <c r="K8">
-        <v>1.045593024967338</v>
+        <v>1.044454788071468</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.051285512675739</v>
+        <v>1.034497994052006</v>
       </c>
       <c r="N8">
-        <v>1.018467870132414</v>
+        <v>1.016416041680374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036410041299786</v>
+        <v>1.005365171533906</v>
       </c>
       <c r="D9">
-        <v>1.040970119960046</v>
+        <v>1.023839711535512</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.045609514634197</v>
+        <v>1.009075750829876</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04172151621527</v>
+        <v>1.048651417557458</v>
       </c>
       <c r="J9">
-        <v>1.042206784065362</v>
+        <v>1.030729883990873</v>
       </c>
       <c r="K9">
-        <v>1.044116569354942</v>
+        <v>1.036557494587318</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.048741060329378</v>
+        <v>1.022023276670935</v>
       </c>
       <c r="N9">
-        <v>1.017920346917302</v>
+        <v>1.013507027028188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034790693592669</v>
+        <v>0.9963909145698185</v>
       </c>
       <c r="D10">
-        <v>1.03969405698252</v>
+        <v>1.016864548827449</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.043622875209442</v>
+        <v>0.9987879880947887</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041161783697248</v>
+        <v>1.044838518831593</v>
       </c>
       <c r="J10">
-        <v>1.041130943164717</v>
+        <v>1.024748460213412</v>
       </c>
       <c r="K10">
-        <v>1.043126508839569</v>
+        <v>1.030935841522934</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.047041457424071</v>
+        <v>1.013179160326818</v>
       </c>
       <c r="N10">
-        <v>1.017552806040918</v>
+        <v>1.011435977505475</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034088898660644</v>
+        <v>0.9923652556928801</v>
       </c>
       <c r="D11">
-        <v>1.039140931085017</v>
+        <v>1.013740028304656</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.042762489837454</v>
+        <v>0.9941758678696613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040917485068499</v>
+        <v>1.043114277780794</v>
       </c>
       <c r="J11">
-        <v>1.04066380923252</v>
+        <v>1.022059134638741</v>
       </c>
       <c r="K11">
-        <v>1.042696429608604</v>
+        <v>1.028407397672138</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.046304703437111</v>
+        <v>1.009208460990269</v>
       </c>
       <c r="N11">
-        <v>1.017393055632052</v>
+        <v>1.010504489960854</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033828128191053</v>
+        <v>0.9908474751326418</v>
       </c>
       <c r="D12">
-        <v>1.038935387526165</v>
+        <v>1.012562746592759</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.042442878182315</v>
+        <v>0.9924373118248585</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040826451071263</v>
+        <v>1.042462159508322</v>
       </c>
       <c r="J12">
-        <v>1.040490100575033</v>
+        <v>1.021044301554307</v>
       </c>
       <c r="K12">
-        <v>1.042536471556545</v>
+        <v>1.027453158051574</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.04603091561816</v>
+        <v>1.007710849570056</v>
       </c>
       <c r="N12">
-        <v>1.017333626431016</v>
+        <v>1.010152951977465</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033884068554752</v>
+        <v>0.9911740863424736</v>
       </c>
       <c r="D13">
-        <v>1.038979481306365</v>
+        <v>1.01281605072761</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.042511437195164</v>
+        <v>0.9928114178522719</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040845991331988</v>
+        <v>1.042602579873015</v>
       </c>
       <c r="J13">
-        <v>1.040527370478644</v>
+        <v>1.021262722762986</v>
       </c>
       <c r="K13">
-        <v>1.042570792501322</v>
+        <v>1.027658542799434</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.046089649707536</v>
+        <v>1.008033146175978</v>
       </c>
       <c r="N13">
-        <v>1.017346378308272</v>
+        <v>1.010228614450206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034067345189299</v>
+        <v>0.9922402629254731</v>
       </c>
       <c r="D14">
-        <v>1.039123942587868</v>
+        <v>1.01364306075192</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.042736071188109</v>
+        <v>0.9940326873726738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040909966101331</v>
+        <v>1.043060615322337</v>
       </c>
       <c r="J14">
-        <v>1.040649454389624</v>
+        <v>1.02197557849181</v>
       </c>
       <c r="K14">
-        <v>1.042683211662492</v>
+        <v>1.028328832747562</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.046282074604715</v>
+        <v>1.009085140644223</v>
       </c>
       <c r="N14">
-        <v>1.017388145049073</v>
+        <v>1.01047554677916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034180255661351</v>
+        <v>0.9928941452772001</v>
       </c>
       <c r="D15">
-        <v>1.039212938278855</v>
+        <v>1.014150363958388</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.042874472053623</v>
+        <v>0.9947817295159579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04094934454358</v>
+        <v>1.043341260557805</v>
       </c>
       <c r="J15">
-        <v>1.040724648542198</v>
+        <v>1.022412655112847</v>
       </c>
       <c r="K15">
-        <v>1.042752449305115</v>
+        <v>1.02873979598224</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.046400617360675</v>
+        <v>1.009730251242837</v>
       </c>
       <c r="N15">
-        <v>1.017413866879746</v>
+        <v>1.010626945252964</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034837256506296</v>
+        <v>0.9966550171112959</v>
       </c>
       <c r="D16">
-        <v>1.039730753817491</v>
+        <v>1.01706963066121</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.043679972617449</v>
+        <v>0.9990906161029615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041177956268267</v>
+        <v>1.044951353506892</v>
       </c>
       <c r="J16">
-        <v>1.04116191810204</v>
+        <v>1.024924767990916</v>
       </c>
       <c r="K16">
-        <v>1.043155022723159</v>
+        <v>1.031101585254975</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.047090336008503</v>
+        <v>1.013439583102949</v>
       </c>
       <c r="N16">
-        <v>1.017563395430305</v>
+        <v>1.011497038725145</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035249212339091</v>
+        <v>0.9989756989731187</v>
       </c>
       <c r="D17">
-        <v>1.040055409598746</v>
+        <v>1.018872202073497</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.044185197888482</v>
+        <v>1.001750126286004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041320841068822</v>
+        <v>1.045941271835149</v>
       </c>
       <c r="J17">
-        <v>1.041435860386266</v>
+        <v>1.026473296545843</v>
       </c>
       <c r="K17">
-        <v>1.043407177392224</v>
+        <v>1.032557231350363</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.047522758634005</v>
+        <v>1.015727538877235</v>
       </c>
       <c r="N17">
-        <v>1.017657029199007</v>
+        <v>1.012033310949025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035489440766645</v>
+        <v>1.000315936719691</v>
       </c>
       <c r="D18">
-        <v>1.040244719682769</v>
+        <v>1.019913629753737</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.044479872228381</v>
+        <v>1.003286308898134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041403997101776</v>
+        <v>1.046511656195689</v>
       </c>
       <c r="J18">
-        <v>1.041595522096675</v>
+        <v>1.027367013657061</v>
       </c>
       <c r="K18">
-        <v>1.043554122178324</v>
+        <v>1.033397258648459</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.047774904974212</v>
+        <v>1.01704855646007</v>
       </c>
       <c r="N18">
-        <v>1.017711586047385</v>
+        <v>1.012342784170325</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035571342583543</v>
+        <v>1.000770696835344</v>
       </c>
       <c r="D19">
-        <v>1.040309260021985</v>
+        <v>1.020267066546911</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.044580346094915</v>
+        <v>1.003807602792055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041432319584429</v>
+        <v>1.046704971050266</v>
       </c>
       <c r="J19">
-        <v>1.041649941575025</v>
+        <v>1.027670162595242</v>
       </c>
       <c r="K19">
-        <v>1.043604204053941</v>
+        <v>1.033682181361778</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.047860867118087</v>
+        <v>1.017496741679029</v>
       </c>
       <c r="N19">
-        <v>1.017730178667263</v>
+        <v>1.012447751964177</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035205019431802</v>
+        <v>0.9987281056174431</v>
       </c>
       <c r="D20">
-        <v>1.040020582916262</v>
+        <v>1.018679842864756</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.044130993569418</v>
+        <v>1.00146635636293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041305530150826</v>
+        <v>1.045835793446267</v>
       </c>
       <c r="J20">
-        <v>1.041406481823178</v>
+        <v>1.026308144857134</v>
       </c>
       <c r="K20">
-        <v>1.043380137319945</v>
+        <v>1.03240199422664</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.047476371909778</v>
+        <v>1.015483470574225</v>
       </c>
       <c r="N20">
-        <v>1.01764698919752</v>
+        <v>1.011976120234256</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03401337735582</v>
+        <v>0.9919269333808672</v>
       </c>
       <c r="D21">
-        <v>1.039081404773613</v>
+        <v>1.013399996601243</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.042669922820522</v>
+        <v>0.9936737702996574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040891135152833</v>
+        <v>1.042926062707807</v>
       </c>
       <c r="J21">
-        <v>1.040613509091625</v>
+        <v>1.021766107393443</v>
       </c>
       <c r="K21">
-        <v>1.042650112754302</v>
+        <v>1.028131872578595</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.046225413725255</v>
+        <v>1.008775994470075</v>
       </c>
       <c r="N21">
-        <v>1.017375848292874</v>
+        <v>1.010402987133411</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033263608306606</v>
+        <v>0.9875199159894729</v>
       </c>
       <c r="D22">
-        <v>1.038490396963267</v>
+        <v>1.009983165948409</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.041751136675072</v>
+        <v>0.9886262548250579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040628906928739</v>
+        <v>1.041028776170895</v>
       </c>
       <c r="J22">
-        <v>1.040113810985763</v>
+        <v>1.018817816369458</v>
       </c>
       <c r="K22">
-        <v>1.042189916603506</v>
+        <v>1.025359415087605</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.04543816477316</v>
+        <v>1.004426445936167</v>
       </c>
       <c r="N22">
-        <v>1.017204845870823</v>
+        <v>1.009381646130393</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033661126389523</v>
+        <v>0.9898690929312163</v>
       </c>
       <c r="D23">
-        <v>1.038803749825246</v>
+        <v>1.011804076116266</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.042238217956436</v>
+        <v>0.9913166991369657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040768078651488</v>
+        <v>1.042041228250383</v>
       </c>
       <c r="J23">
-        <v>1.040378817297936</v>
+        <v>1.020389882262818</v>
       </c>
       <c r="K23">
-        <v>1.042433989332185</v>
+        <v>1.026837781944746</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.0458555694956</v>
+        <v>1.006745307893056</v>
       </c>
       <c r="N23">
-        <v>1.017295547365035</v>
+        <v>1.00992625277923</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03522498848449</v>
+        <v>0.9988400236263685</v>
       </c>
       <c r="D24">
-        <v>1.040036319768212</v>
+        <v>1.018766792481358</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.044155486213725</v>
+        <v>1.001594626201208</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041312449070919</v>
+        <v>1.045883476229871</v>
       </c>
       <c r="J24">
-        <v>1.041419757114689</v>
+        <v>1.026382799123638</v>
       </c>
       <c r="K24">
-        <v>1.043392355974657</v>
+        <v>1.032472167028258</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.047497332315609</v>
+        <v>1.015593796167494</v>
       </c>
       <c r="N24">
-        <v>1.017651526021598</v>
+        <v>1.012001972508509</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037037475876338</v>
+        <v>1.008729684478107</v>
       </c>
       <c r="D25">
-        <v>1.041464447933822</v>
+        <v>1.02645799415383</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.046379789377722</v>
+        <v>1.012935515743926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041936856095459</v>
+        <v>1.050068720883526</v>
       </c>
       <c r="J25">
-        <v>1.042622841032748</v>
+        <v>1.032966789622547</v>
       </c>
       <c r="K25">
-        <v>1.044499281232582</v>
+        <v>1.038659012665825</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.049399436425212</v>
+        <v>1.025336289205417</v>
       </c>
       <c r="N25">
-        <v>1.018062339291407</v>
+        <v>1.014281204380526</v>
       </c>
     </row>
   </sheetData>
